--- a/my_raw_data.xlsx
+++ b/my_raw_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunseokjeon/git/yield_calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6CAA24C-6056-4340-AF49-D3C79A2EE327}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E83C29-905F-AD45-8F6C-F72B939DCE55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2740" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
+    <workbookView xWindow="6300" yWindow="2560" windowWidth="28100" windowHeight="17440" xr2:uid="{6551E8ED-38DF-1D41-9757-25B6A91C0AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>KODEX 미국달러선물인버스2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate of return</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,19 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB57119-047A-2A43-8CA8-77D96A763DB1}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -479,8 +484,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -514,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -531,7 +539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -548,7 +556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -565,7 +573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -582,7 +590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -599,7 +607,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>14</v>
       </c>
